--- a/FULL_STEMI_BASE.xlsx
+++ b/FULL_STEMI_BASE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13900"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="13900"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -419,6 +419,10 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -530,7 +534,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -672,6 +676,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -997,7 +1004,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T16" sqref="T16"/>
+      <selection pane="bottomLeft" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -1817,7 +1824,7 @@
       <c r="P13" s="26">
         <v>0.84444444444444444</v>
       </c>
-      <c r="Q13" s="20" t="s">
+      <c r="Q13" s="48" t="s">
         <v>64</v>
       </c>
       <c r="R13" s="20" t="s">
@@ -2195,8 +2202,8 @@
       <c r="R19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="S19" s="20" t="s">
-        <v>3</v>
+      <c r="S19" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="T19" s="38">
         <v>0.28999999999999998</v>
